--- a/compulsory_encoded.xlsx
+++ b/compulsory_encoded.xlsx
@@ -28127,7 +28127,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Financial </t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -28244,7 +28244,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Financial </t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -28361,7 +28361,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Financial </t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -28478,7 +28478,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Financial </t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
